--- a/xlsx/country_comparison/understood_each_positive.xlsx
+++ b/xlsx/country_comparison/understood_each_positive.xlsx
@@ -403,7 +403,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.681003458499323</v>
+        <v>0.68100345730314</v>
       </c>
       <c r="C2" t="n">
         <v>0.727113110682847</v>
@@ -426,7 +426,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.599677497815336</v>
+        <v>0.59967749926466</v>
       </c>
       <c r="C3" t="n">
         <v>0.67661016377709</v>
@@ -449,7 +449,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.535831631422382</v>
+        <v>0.535831633062902</v>
       </c>
       <c r="C4" t="n">
         <v>0.603768338093299</v>
